--- a/Milestone 1/StateDescriptions.xlsx
+++ b/Milestone 1/StateDescriptions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="69">
   <si>
     <t>Q0</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>Q47</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q28</t>
   </si>
 </sst>
 </file>
@@ -553,7 +565,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -675,7 +687,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -734,7 +746,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -793,7 +805,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -852,7 +864,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -911,7 +923,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -970,7 +982,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1029,7 +1041,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -1088,7 +1100,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
@@ -1147,7 +1159,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -1206,7 +1218,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -1265,7 +1277,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -1324,7 +1336,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>34</v>
@@ -1383,7 +1395,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -1442,7 +1454,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
@@ -1501,7 +1513,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -1560,7 +1572,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -1619,7 +1631,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -1678,7 +1690,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -1737,7 +1749,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -1796,7 +1808,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
@@ -1855,7 +1867,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -1914,7 +1926,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -1973,7 +1985,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -2032,7 +2044,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -2091,7 +2103,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -2150,7 +2162,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>46</v>
@@ -2209,7 +2221,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>46</v>
@@ -2268,7 +2280,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -2327,7 +2339,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -2386,7 +2398,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -2445,7 +2457,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
@@ -2504,7 +2516,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -2563,7 +2575,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
@@ -2622,7 +2634,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
@@ -2681,7 +2693,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>55</v>
@@ -2740,7 +2752,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>55</v>
@@ -2799,7 +2811,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>56</v>
@@ -2858,7 +2870,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>56</v>
@@ -2917,7 +2929,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>56</v>
@@ -2976,7 +2988,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -3035,7 +3047,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -3094,7 +3106,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -3153,7 +3165,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>61</v>
@@ -3212,7 +3224,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>61</v>
@@ -3271,7 +3283,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
@@ -3330,7 +3342,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>21</v>
@@ -3389,7 +3401,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -3448,7 +3460,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
